--- a/data/Subset1_WithDialogActs/Stephanies group 2_first grade.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Stephanies group 2_first grade.xlsx_with_dialog_acts.xlsx
@@ -661,12 +661,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1573,12 +1573,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1691,12 +1691,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
